--- a/HiMCMData.xlsx
+++ b/HiMCMData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexkuai/Desktop/R Projects/GlobalWarming/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F930C5-2279-C744-8318-38140C0694F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC67B265-0033-984B-9FCC-095BEFDB50EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19940" xr2:uid="{7BEFC106-ED20-3C45-9DF6-3DFA2245C3A8}"/>
   </bookViews>
@@ -24,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Year</t>
   </si>
@@ -59,6 +61,9 @@
   </si>
   <si>
     <t>Lag</t>
+  </si>
+  <si>
+    <t>Polynomial Regression(Forecast)</t>
   </si>
 </sst>
 </file>
@@ -143,6 +148,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFED73AE"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -152,6 +162,1489 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>CO2(PPM) Polynomial Regression </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>CO2 Levels(PPM)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="ED73AE"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:forward val="79"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.17677124736710786"/>
+                  <c:y val="0.57992450776428861"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.0000000000" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln w="15875">
+                  <a:solidFill>
+                    <a:srgbClr val="7030A0"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="7030A0"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'CO2 Data Set 1'!$A$2:$A$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>1959</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1961</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1962</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1963</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1964</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1965</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1966</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1967</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1968</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1969</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1971</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1972</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1974</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1975</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1977</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1978</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1979</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'CO2 Data Set 1'!$B$2:$B$64</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>315.98</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>316.91000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>317.64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>318.45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>318.99</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>319.62</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>320.04000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>321.37</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>322.18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>323.05</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>324.62</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>325.68</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>326.32</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>327.45999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>329.68</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>330.19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>331.13</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>332.03</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>333.84</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>335.41</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>336.84</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>338.76</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>340.12</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>341.48</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>343.15</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>344.87</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>346.35</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>347.61</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>349.31</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>351.69</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>353.2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>354.45</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>355.7</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>356.54</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>357.21</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>358.96</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>360.97</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>362.74</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>363.88</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>366.84</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>368.54</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>369.71</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>371.32</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>373.45</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>375.98</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>377.7</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>379.98</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>382.09</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>384.02</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>385.83</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>387.64</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>390.1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>391.85</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>394.06</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>396.74</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>398.81</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>401.01</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>404.41</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>406.76</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>408.72</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>411.66</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>414.24</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>416.45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6093-DD4C-B01A-FAB4CCDDF95C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1343268304"/>
+        <c:axId val="1343269952"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1343268304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Year</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1343269952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1343269952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="300"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>CO2 (PPM)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1343268304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>654050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45427335-9967-82D4-0098-07CF8C49545D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -454,7 +1947,7 @@
   <dimension ref="A1:H143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8:L9"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -466,7 +1959,7 @@
     <col min="5" max="5" width="22.33203125" style="5" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" style="5" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" style="5"/>
-    <col min="8" max="8" width="25" style="5" customWidth="1"/>
+    <col min="8" max="8" width="29" style="5" customWidth="1"/>
     <col min="9" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
@@ -492,7 +1985,9 @@
       <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
@@ -529,7 +2024,7 @@
         <v>0.72999999999996135</v>
       </c>
       <c r="G4" s="5">
-        <f>G3 + 1</f>
+        <f t="shared" ref="G4:G35" si="1">G3 + 1</f>
         <v>2</v>
       </c>
     </row>
@@ -545,7 +2040,7 @@
         <v>0.81000000000000227</v>
       </c>
       <c r="G5" s="5">
-        <f>G4 + 1</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -561,7 +2056,7 @@
         <v>0.54000000000002046</v>
       </c>
       <c r="G6" s="5">
-        <f>G5 + 1</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -581,7 +2076,7 @@
         <v>317.59399999999999</v>
       </c>
       <c r="G7" s="5">
-        <f>G6 + 1</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -597,11 +2092,11 @@
         <v>0.42000000000001592</v>
       </c>
       <c r="F8" s="5">
-        <f t="shared" ref="F8:F64" si="1">(B7+B6+B5+B4+B3) / 5</f>
+        <f t="shared" ref="F8:F64" si="2">(B7+B6+B5+B4+B3) / 5</f>
         <v>318.322</v>
       </c>
       <c r="G8" s="5">
-        <f>G7 + 1</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -617,11 +2112,11 @@
         <v>1.3299999999999841</v>
       </c>
       <c r="F9" s="5">
+        <f t="shared" si="2"/>
+        <v>318.94800000000004</v>
+      </c>
+      <c r="G9" s="5">
         <f t="shared" si="1"/>
-        <v>318.94800000000004</v>
-      </c>
-      <c r="G9" s="5">
-        <f>G8 + 1</f>
         <v>7</v>
       </c>
     </row>
@@ -637,11 +2132,11 @@
         <v>0.81000000000000227</v>
       </c>
       <c r="F10" s="5">
+        <f t="shared" si="2"/>
+        <v>319.69400000000002</v>
+      </c>
+      <c r="G10" s="5">
         <f t="shared" si="1"/>
-        <v>319.69400000000002</v>
-      </c>
-      <c r="G10" s="5">
-        <f>G9 + 1</f>
         <v>8</v>
       </c>
     </row>
@@ -657,11 +2152,11 @@
         <v>0.87000000000000455</v>
       </c>
       <c r="F11" s="5">
+        <f t="shared" si="2"/>
+        <v>320.44</v>
+      </c>
+      <c r="G11" s="5">
         <f t="shared" si="1"/>
-        <v>320.44</v>
-      </c>
-      <c r="G11" s="5">
-        <f>G10 + 1</f>
         <v>9</v>
       </c>
     </row>
@@ -685,11 +2180,11 @@
         <v>319.423</v>
       </c>
       <c r="F12" s="5">
+        <f t="shared" si="2"/>
+        <v>321.25200000000007</v>
+      </c>
+      <c r="G12" s="5">
         <f t="shared" si="1"/>
-        <v>321.25200000000007</v>
-      </c>
-      <c r="G12" s="5">
-        <f>G11 + 1</f>
         <v>10</v>
       </c>
     </row>
@@ -701,7 +2196,7 @@
         <v>325.68</v>
       </c>
       <c r="C13" s="7">
-        <f t="shared" ref="C13:C64" si="2">(B13-B3) / 10</f>
+        <f t="shared" ref="C13:C64" si="3">(B13-B3) / 10</f>
         <v>0.87699999999999823</v>
       </c>
       <c r="D13" s="10">
@@ -709,15 +2204,15 @@
         <v>1.0600000000000023</v>
       </c>
       <c r="E13" s="5">
-        <f t="shared" ref="E13:E65" si="3">(B12+B11+B10+B9+B8+B7+B6+B5+B4+B3) / 10</f>
+        <f t="shared" ref="E13:E65" si="4">(B12+B11+B10+B9+B8+B7+B6+B5+B4+B3) / 10</f>
         <v>320.28699999999992</v>
       </c>
       <c r="F13" s="5">
+        <f t="shared" si="2"/>
+        <v>322.25200000000007</v>
+      </c>
+      <c r="G13" s="5">
         <f t="shared" si="1"/>
-        <v>322.25200000000007</v>
-      </c>
-      <c r="G13" s="5">
-        <f>G12 + 1</f>
         <v>11</v>
       </c>
     </row>
@@ -729,23 +2224,23 @@
         <v>326.32</v>
       </c>
       <c r="C14" s="7">
+        <f t="shared" si="3"/>
+        <v>0.86800000000000066</v>
+      </c>
+      <c r="D14" s="10">
+        <f t="shared" si="0"/>
+        <v>0.63999999999998636</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="4"/>
+        <v>321.16399999999999</v>
+      </c>
+      <c r="F14" s="5">
         <f t="shared" si="2"/>
-        <v>0.86800000000000066</v>
-      </c>
-      <c r="D14" s="10">
-        <f t="shared" si="0"/>
-        <v>0.63999999999998636</v>
-      </c>
-      <c r="E14" s="5">
-        <f t="shared" si="3"/>
-        <v>321.16399999999999</v>
-      </c>
-      <c r="F14" s="5">
+        <v>323.38</v>
+      </c>
+      <c r="G14" s="5">
         <f t="shared" si="1"/>
-        <v>323.38</v>
-      </c>
-      <c r="G14" s="5">
-        <f>G13 + 1</f>
         <v>12</v>
       </c>
     </row>
@@ -757,23 +2252,23 @@
         <v>327.45999999999998</v>
       </c>
       <c r="C15" s="7">
+        <f t="shared" si="3"/>
+        <v>0.90099999999999913</v>
+      </c>
+      <c r="D15" s="10">
+        <f t="shared" si="0"/>
+        <v>1.1399999999999864</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" si="4"/>
+        <v>322.03199999999998</v>
+      </c>
+      <c r="F15" s="5">
         <f t="shared" si="2"/>
-        <v>0.90099999999999913</v>
-      </c>
-      <c r="D15" s="10">
-        <f t="shared" si="0"/>
-        <v>1.1399999999999864</v>
-      </c>
-      <c r="E15" s="5">
-        <f t="shared" si="3"/>
-        <v>322.03199999999998</v>
-      </c>
-      <c r="F15" s="5">
+        <v>324.37</v>
+      </c>
+      <c r="G15" s="5">
         <f t="shared" si="1"/>
-        <v>324.37</v>
-      </c>
-      <c r="G15" s="5">
-        <f>G14 + 1</f>
         <v>13</v>
       </c>
     </row>
@@ -785,23 +2280,23 @@
         <v>329.68</v>
       </c>
       <c r="C16" s="7">
+        <f t="shared" si="3"/>
+        <v>1.0689999999999997</v>
+      </c>
+      <c r="D16" s="10">
+        <f t="shared" si="0"/>
+        <v>2.2200000000000273</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" si="4"/>
+        <v>322.93299999999999</v>
+      </c>
+      <c r="F16" s="5">
         <f t="shared" si="2"/>
-        <v>1.0689999999999997</v>
-      </c>
-      <c r="D16" s="10">
-        <f t="shared" si="0"/>
-        <v>2.2200000000000273</v>
-      </c>
-      <c r="E16" s="5">
-        <f t="shared" si="3"/>
-        <v>322.93299999999999</v>
-      </c>
-      <c r="F16" s="5">
+        <v>325.42599999999999</v>
+      </c>
+      <c r="G16" s="5">
         <f t="shared" si="1"/>
-        <v>325.42599999999999</v>
-      </c>
-      <c r="G16" s="5">
-        <f>G15 + 1</f>
         <v>14</v>
       </c>
     </row>
@@ -813,23 +2308,23 @@
         <v>330.19</v>
       </c>
       <c r="C17" s="7">
+        <f t="shared" si="3"/>
+        <v>1.0569999999999993</v>
+      </c>
+      <c r="D17" s="10">
+        <f t="shared" si="0"/>
+        <v>0.50999999999999091</v>
+      </c>
+      <c r="E17" s="5">
+        <f t="shared" si="4"/>
+        <v>324.00200000000001</v>
+      </c>
+      <c r="F17" s="5">
         <f t="shared" si="2"/>
-        <v>1.0569999999999993</v>
-      </c>
-      <c r="D17" s="10">
-        <f t="shared" si="0"/>
-        <v>0.50999999999999091</v>
-      </c>
-      <c r="E17" s="5">
-        <f t="shared" si="3"/>
-        <v>324.00200000000001</v>
-      </c>
-      <c r="F17" s="5">
+        <v>326.75200000000007</v>
+      </c>
+      <c r="G17" s="5">
         <f t="shared" si="1"/>
-        <v>326.75200000000007</v>
-      </c>
-      <c r="G17" s="5">
-        <f>G16 + 1</f>
         <v>15</v>
       </c>
     </row>
@@ -841,23 +2336,23 @@
         <v>331.13</v>
       </c>
       <c r="C18" s="7">
+        <f t="shared" si="3"/>
+        <v>1.1089999999999975</v>
+      </c>
+      <c r="D18" s="10">
+        <f t="shared" si="0"/>
+        <v>0.93999999999999773</v>
+      </c>
+      <c r="E18" s="5">
+        <f t="shared" si="4"/>
+        <v>325.05899999999997</v>
+      </c>
+      <c r="F18" s="5">
         <f t="shared" si="2"/>
-        <v>1.1089999999999975</v>
-      </c>
-      <c r="D18" s="10">
-        <f t="shared" si="0"/>
-        <v>0.93999999999999773</v>
-      </c>
-      <c r="E18" s="5">
-        <f t="shared" si="3"/>
-        <v>325.05899999999997</v>
-      </c>
-      <c r="F18" s="5">
+        <v>327.86599999999999</v>
+      </c>
+      <c r="G18" s="5">
         <f t="shared" si="1"/>
-        <v>327.86599999999999</v>
-      </c>
-      <c r="G18" s="5">
-        <f>G17 + 1</f>
         <v>16</v>
       </c>
     </row>
@@ -869,23 +2364,23 @@
         <v>332.03</v>
       </c>
       <c r="C19" s="7">
+        <f t="shared" si="3"/>
+        <v>1.0659999999999967</v>
+      </c>
+      <c r="D19" s="10">
+        <f t="shared" si="0"/>
+        <v>0.89999999999997726</v>
+      </c>
+      <c r="E19" s="5">
+        <f t="shared" si="4"/>
+        <v>326.16800000000001</v>
+      </c>
+      <c r="F19" s="5">
         <f t="shared" si="2"/>
-        <v>1.0659999999999967</v>
-      </c>
-      <c r="D19" s="10">
-        <f t="shared" si="0"/>
-        <v>0.89999999999997726</v>
-      </c>
-      <c r="E19" s="5">
-        <f t="shared" si="3"/>
-        <v>326.16800000000001</v>
-      </c>
-      <c r="F19" s="5">
+        <v>328.95600000000002</v>
+      </c>
+      <c r="G19" s="5">
         <f t="shared" si="1"/>
-        <v>328.95600000000002</v>
-      </c>
-      <c r="G19" s="5">
-        <f>G18 + 1</f>
         <v>17</v>
       </c>
     </row>
@@ -897,23 +2392,23 @@
         <v>333.84</v>
       </c>
       <c r="C20" s="7">
+        <f t="shared" si="3"/>
+        <v>1.1659999999999968</v>
+      </c>
+      <c r="D20" s="10">
+        <f t="shared" si="0"/>
+        <v>1.8100000000000023</v>
+      </c>
+      <c r="E20" s="5">
+        <f t="shared" si="4"/>
+        <v>327.23399999999998</v>
+      </c>
+      <c r="F20" s="5">
         <f t="shared" si="2"/>
-        <v>1.1659999999999968</v>
-      </c>
-      <c r="D20" s="10">
-        <f t="shared" si="0"/>
-        <v>1.8100000000000023</v>
-      </c>
-      <c r="E20" s="5">
-        <f t="shared" si="3"/>
-        <v>327.23399999999998</v>
-      </c>
-      <c r="F20" s="5">
+        <v>330.09800000000001</v>
+      </c>
+      <c r="G20" s="5">
         <f t="shared" si="1"/>
-        <v>330.09800000000001</v>
-      </c>
-      <c r="G20" s="5">
-        <f>G19 + 1</f>
         <v>18</v>
       </c>
     </row>
@@ -925,23 +2420,23 @@
         <v>335.41</v>
       </c>
       <c r="C21" s="7">
+        <f t="shared" si="3"/>
+        <v>1.2360000000000013</v>
+      </c>
+      <c r="D21" s="10">
+        <f t="shared" si="0"/>
+        <v>1.57000000000005</v>
+      </c>
+      <c r="E21" s="5">
+        <f t="shared" si="4"/>
+        <v>328.4</v>
+      </c>
+      <c r="F21" s="5">
         <f t="shared" si="2"/>
-        <v>1.2360000000000013</v>
-      </c>
-      <c r="D21" s="10">
-        <f t="shared" si="0"/>
-        <v>1.57000000000005</v>
-      </c>
-      <c r="E21" s="5">
-        <f t="shared" si="3"/>
-        <v>328.4</v>
-      </c>
-      <c r="F21" s="5">
+        <v>331.37399999999997</v>
+      </c>
+      <c r="G21" s="5">
         <f t="shared" si="1"/>
-        <v>331.37399999999997</v>
-      </c>
-      <c r="G21" s="5">
-        <f>G20 + 1</f>
         <v>19</v>
       </c>
     </row>
@@ -953,23 +2448,23 @@
         <v>336.84</v>
       </c>
       <c r="C22" s="7">
+        <f t="shared" si="3"/>
+        <v>1.2219999999999971</v>
+      </c>
+      <c r="D22" s="10">
+        <f t="shared" si="0"/>
+        <v>1.42999999999995</v>
+      </c>
+      <c r="E22" s="5">
+        <f t="shared" si="4"/>
+        <v>329.63599999999997</v>
+      </c>
+      <c r="F22" s="5">
         <f t="shared" si="2"/>
-        <v>1.2219999999999971</v>
-      </c>
-      <c r="D22" s="10">
-        <f t="shared" si="0"/>
-        <v>1.42999999999995</v>
-      </c>
-      <c r="E22" s="5">
-        <f t="shared" si="3"/>
-        <v>329.63599999999997</v>
-      </c>
-      <c r="F22" s="5">
+        <v>332.52</v>
+      </c>
+      <c r="G22" s="5">
         <f t="shared" si="1"/>
-        <v>332.52</v>
-      </c>
-      <c r="G22" s="5">
-        <f>G21 + 1</f>
         <v>20</v>
       </c>
     </row>
@@ -981,23 +2476,23 @@
         <v>338.76</v>
       </c>
       <c r="C23" s="7">
+        <f t="shared" si="3"/>
+        <v>1.3079999999999985</v>
+      </c>
+      <c r="D23" s="10">
+        <f t="shared" si="0"/>
+        <v>1.9200000000000159</v>
+      </c>
+      <c r="E23" s="5">
+        <f t="shared" si="4"/>
+        <v>330.858</v>
+      </c>
+      <c r="F23" s="5">
         <f t="shared" si="2"/>
-        <v>1.3079999999999985</v>
-      </c>
-      <c r="D23" s="10">
-        <f t="shared" si="0"/>
-        <v>1.9200000000000159</v>
-      </c>
-      <c r="E23" s="5">
-        <f t="shared" si="3"/>
-        <v>330.858</v>
-      </c>
-      <c r="F23" s="5">
+        <v>333.85</v>
+      </c>
+      <c r="G23" s="5">
         <f t="shared" si="1"/>
-        <v>333.85</v>
-      </c>
-      <c r="G23" s="5">
-        <f>G22 + 1</f>
         <v>21</v>
       </c>
     </row>
@@ -1009,23 +2504,23 @@
         <v>340.12</v>
       </c>
       <c r="C24" s="7">
+        <f t="shared" si="3"/>
+        <v>1.3800000000000012</v>
+      </c>
+      <c r="D24" s="10">
+        <f t="shared" si="0"/>
+        <v>1.3600000000000136</v>
+      </c>
+      <c r="E24" s="5">
+        <f t="shared" si="4"/>
+        <v>332.166</v>
+      </c>
+      <c r="F24" s="5">
         <f t="shared" si="2"/>
-        <v>1.3800000000000012</v>
-      </c>
-      <c r="D24" s="10">
-        <f t="shared" si="0"/>
-        <v>1.3600000000000136</v>
-      </c>
-      <c r="E24" s="5">
-        <f t="shared" si="3"/>
-        <v>332.166</v>
-      </c>
-      <c r="F24" s="5">
+        <v>335.37599999999998</v>
+      </c>
+      <c r="G24" s="5">
         <f t="shared" si="1"/>
-        <v>335.37599999999998</v>
-      </c>
-      <c r="G24" s="5">
-        <f>G23 + 1</f>
         <v>22</v>
       </c>
     </row>
@@ -1037,23 +2532,23 @@
         <v>341.48</v>
       </c>
       <c r="C25" s="7">
+        <f t="shared" si="3"/>
+        <v>1.4020000000000039</v>
+      </c>
+      <c r="D25" s="10">
+        <f t="shared" si="0"/>
+        <v>1.3600000000000136</v>
+      </c>
+      <c r="E25" s="5">
+        <f t="shared" si="4"/>
+        <v>333.54599999999999</v>
+      </c>
+      <c r="F25" s="5">
         <f t="shared" si="2"/>
-        <v>1.4020000000000039</v>
-      </c>
-      <c r="D25" s="10">
-        <f t="shared" si="0"/>
-        <v>1.3600000000000136</v>
-      </c>
-      <c r="E25" s="5">
-        <f t="shared" si="3"/>
-        <v>333.54599999999999</v>
-      </c>
-      <c r="F25" s="5">
+        <v>336.99400000000003</v>
+      </c>
+      <c r="G25" s="5">
         <f t="shared" si="1"/>
-        <v>336.99400000000003</v>
-      </c>
-      <c r="G25" s="5">
-        <f>G24 + 1</f>
         <v>23</v>
       </c>
     </row>
@@ -1065,23 +2560,23 @@
         <v>343.15</v>
       </c>
       <c r="C26" s="7">
+        <f t="shared" si="3"/>
+        <v>1.3469999999999971</v>
+      </c>
+      <c r="D26" s="10">
+        <f t="shared" si="0"/>
+        <v>1.6699999999999591</v>
+      </c>
+      <c r="E26" s="5">
+        <f t="shared" si="4"/>
+        <v>334.94799999999998</v>
+      </c>
+      <c r="F26" s="5">
         <f t="shared" si="2"/>
-        <v>1.3469999999999971</v>
-      </c>
-      <c r="D26" s="10">
-        <f t="shared" si="0"/>
-        <v>1.6699999999999591</v>
-      </c>
-      <c r="E26" s="5">
-        <f t="shared" si="3"/>
-        <v>334.94799999999998</v>
-      </c>
-      <c r="F26" s="5">
+        <v>338.52200000000005</v>
+      </c>
+      <c r="G26" s="5">
         <f t="shared" si="1"/>
-        <v>338.52200000000005</v>
-      </c>
-      <c r="G26" s="5">
-        <f>G25 + 1</f>
         <v>24</v>
       </c>
     </row>
@@ -1093,23 +2588,23 @@
         <v>344.87</v>
       </c>
       <c r="C27" s="7">
+        <f t="shared" si="3"/>
+        <v>1.4680000000000006</v>
+      </c>
+      <c r="D27" s="10">
+        <f t="shared" si="0"/>
+        <v>1.7200000000000273</v>
+      </c>
+      <c r="E27" s="5">
+        <f t="shared" si="4"/>
+        <v>336.29500000000002</v>
+      </c>
+      <c r="F27" s="5">
         <f t="shared" si="2"/>
-        <v>1.4680000000000006</v>
-      </c>
-      <c r="D27" s="10">
-        <f t="shared" si="0"/>
-        <v>1.7200000000000273</v>
-      </c>
-      <c r="E27" s="5">
-        <f t="shared" si="3"/>
-        <v>336.29500000000002</v>
-      </c>
-      <c r="F27" s="5">
+        <v>340.07</v>
+      </c>
+      <c r="G27" s="5">
         <f t="shared" si="1"/>
-        <v>340.07</v>
-      </c>
-      <c r="G27" s="5">
-        <f>G26 + 1</f>
         <v>25</v>
       </c>
     </row>
@@ -1121,23 +2616,23 @@
         <v>346.35</v>
       </c>
       <c r="C28" s="7">
+        <f t="shared" si="3"/>
+        <v>1.5220000000000027</v>
+      </c>
+      <c r="D28" s="10">
+        <f t="shared" si="0"/>
+        <v>1.4800000000000182</v>
+      </c>
+      <c r="E28" s="5">
+        <f t="shared" si="4"/>
+        <v>337.76300000000003</v>
+      </c>
+      <c r="F28" s="5">
         <f t="shared" si="2"/>
-        <v>1.5220000000000027</v>
-      </c>
-      <c r="D28" s="10">
-        <f t="shared" si="0"/>
-        <v>1.4800000000000182</v>
-      </c>
-      <c r="E28" s="5">
-        <f t="shared" si="3"/>
-        <v>337.76300000000003</v>
-      </c>
-      <c r="F28" s="5">
+        <v>341.67599999999999</v>
+      </c>
+      <c r="G28" s="5">
         <f t="shared" si="1"/>
-        <v>341.67599999999999</v>
-      </c>
-      <c r="G28" s="5">
-        <f>G27 + 1</f>
         <v>26</v>
       </c>
     </row>
@@ -1149,23 +2644,23 @@
         <v>347.61</v>
       </c>
       <c r="C29" s="7">
+        <f t="shared" si="3"/>
+        <v>1.558000000000004</v>
+      </c>
+      <c r="D29" s="10">
+        <f t="shared" si="0"/>
+        <v>1.2599999999999909</v>
+      </c>
+      <c r="E29" s="5">
+        <f t="shared" si="4"/>
+        <v>339.28499999999997</v>
+      </c>
+      <c r="F29" s="5">
         <f t="shared" si="2"/>
-        <v>1.558000000000004</v>
-      </c>
-      <c r="D29" s="10">
-        <f t="shared" si="0"/>
-        <v>1.2599999999999909</v>
-      </c>
-      <c r="E29" s="5">
-        <f t="shared" si="3"/>
-        <v>339.28499999999997</v>
-      </c>
-      <c r="F29" s="5">
+        <v>343.19399999999996</v>
+      </c>
+      <c r="G29" s="5">
         <f t="shared" si="1"/>
-        <v>343.19399999999996</v>
-      </c>
-      <c r="G29" s="5">
-        <f>G28 + 1</f>
         <v>27</v>
       </c>
     </row>
@@ -1177,23 +2672,23 @@
         <v>349.31</v>
       </c>
       <c r="C30" s="7">
+        <f t="shared" si="3"/>
+        <v>1.5470000000000028</v>
+      </c>
+      <c r="D30" s="10">
+        <f t="shared" si="0"/>
+        <v>1.6999999999999886</v>
+      </c>
+      <c r="E30" s="5">
+        <f t="shared" si="4"/>
+        <v>340.84300000000002</v>
+      </c>
+      <c r="F30" s="5">
         <f t="shared" si="2"/>
-        <v>1.5470000000000028</v>
-      </c>
-      <c r="D30" s="10">
-        <f t="shared" si="0"/>
-        <v>1.6999999999999886</v>
-      </c>
-      <c r="E30" s="5">
-        <f t="shared" si="3"/>
-        <v>340.84300000000002</v>
-      </c>
-      <c r="F30" s="5">
+        <v>344.69200000000001</v>
+      </c>
+      <c r="G30" s="5">
         <f t="shared" si="1"/>
-        <v>344.69200000000001</v>
-      </c>
-      <c r="G30" s="5">
-        <f>G29 + 1</f>
         <v>28</v>
       </c>
     </row>
@@ -1205,23 +2700,23 @@
         <v>351.69</v>
       </c>
       <c r="C31" s="7">
+        <f t="shared" si="3"/>
+        <v>1.6279999999999972</v>
+      </c>
+      <c r="D31" s="10">
+        <f t="shared" si="0"/>
+        <v>2.3799999999999955</v>
+      </c>
+      <c r="E31" s="5">
+        <f t="shared" si="4"/>
+        <v>342.39</v>
+      </c>
+      <c r="F31" s="5">
         <f t="shared" si="2"/>
-        <v>1.6279999999999972</v>
-      </c>
-      <c r="D31" s="10">
-        <f t="shared" si="0"/>
-        <v>2.3799999999999955</v>
-      </c>
-      <c r="E31" s="5">
-        <f t="shared" si="3"/>
-        <v>342.39</v>
-      </c>
-      <c r="F31" s="5">
+        <v>346.25799999999998</v>
+      </c>
+      <c r="G31" s="5">
         <f t="shared" si="1"/>
-        <v>346.25799999999998</v>
-      </c>
-      <c r="G31" s="5">
-        <f>G30 + 1</f>
         <v>29</v>
       </c>
     </row>
@@ -1233,23 +2728,23 @@
         <v>353.2</v>
       </c>
       <c r="C32" s="7">
+        <f t="shared" si="3"/>
+        <v>1.6360000000000015</v>
+      </c>
+      <c r="D32" s="10">
+        <f t="shared" si="0"/>
+        <v>1.5099999999999909</v>
+      </c>
+      <c r="E32" s="5">
+        <f t="shared" si="4"/>
+        <v>344.01800000000003</v>
+      </c>
+      <c r="F32" s="5">
         <f t="shared" si="2"/>
-        <v>1.6360000000000015</v>
-      </c>
-      <c r="D32" s="10">
-        <f t="shared" si="0"/>
-        <v>1.5099999999999909</v>
-      </c>
-      <c r="E32" s="5">
-        <f t="shared" si="3"/>
-        <v>344.01800000000003</v>
-      </c>
-      <c r="F32" s="5">
+        <v>347.96600000000001</v>
+      </c>
+      <c r="G32" s="5">
         <f t="shared" si="1"/>
-        <v>347.96600000000001</v>
-      </c>
-      <c r="G32" s="5">
-        <f>G31 + 1</f>
         <v>30</v>
       </c>
     </row>
@@ -1261,23 +2756,23 @@
         <v>354.45</v>
       </c>
       <c r="C33" s="7">
+        <f t="shared" si="3"/>
+        <v>1.5689999999999997</v>
+      </c>
+      <c r="D33" s="10">
+        <f t="shared" si="0"/>
+        <v>1.25</v>
+      </c>
+      <c r="E33" s="5">
+        <f t="shared" si="4"/>
+        <v>345.654</v>
+      </c>
+      <c r="F33" s="5">
         <f t="shared" si="2"/>
-        <v>1.5689999999999997</v>
-      </c>
-      <c r="D33" s="10">
-        <f t="shared" si="0"/>
-        <v>1.25</v>
-      </c>
-      <c r="E33" s="5">
-        <f t="shared" si="3"/>
-        <v>345.654</v>
-      </c>
-      <c r="F33" s="5">
+        <v>349.63199999999995</v>
+      </c>
+      <c r="G33" s="5">
         <f t="shared" si="1"/>
-        <v>349.63199999999995</v>
-      </c>
-      <c r="G33" s="5">
-        <f>G32 + 1</f>
         <v>31</v>
       </c>
     </row>
@@ -1289,23 +2784,23 @@
         <v>355.7</v>
       </c>
       <c r="C34" s="7">
+        <f t="shared" si="3"/>
+        <v>1.5579999999999985</v>
+      </c>
+      <c r="D34" s="10">
+        <f t="shared" si="0"/>
+        <v>1.25</v>
+      </c>
+      <c r="E34" s="5">
+        <f t="shared" si="4"/>
+        <v>347.22299999999996</v>
+      </c>
+      <c r="F34" s="5">
         <f t="shared" si="2"/>
-        <v>1.5579999999999985</v>
-      </c>
-      <c r="D34" s="10">
-        <f t="shared" si="0"/>
-        <v>1.25</v>
-      </c>
-      <c r="E34" s="5">
-        <f t="shared" si="3"/>
-        <v>347.22299999999996</v>
-      </c>
-      <c r="F34" s="5">
+        <v>351.25199999999995</v>
+      </c>
+      <c r="G34" s="5">
         <f t="shared" si="1"/>
-        <v>351.25199999999995</v>
-      </c>
-      <c r="G34" s="5">
-        <f>G33 + 1</f>
         <v>32</v>
       </c>
     </row>
@@ -1317,23 +2812,23 @@
         <v>356.54</v>
       </c>
       <c r="C35" s="7">
+        <f t="shared" si="3"/>
+        <v>1.5060000000000002</v>
+      </c>
+      <c r="D35" s="10">
+        <f t="shared" si="0"/>
+        <v>0.84000000000003183</v>
+      </c>
+      <c r="E35" s="5">
+        <f t="shared" si="4"/>
+        <v>348.78100000000001</v>
+      </c>
+      <c r="F35" s="5">
         <f t="shared" si="2"/>
-        <v>1.5060000000000002</v>
-      </c>
-      <c r="D35" s="10">
-        <f t="shared" si="0"/>
-        <v>0.84000000000003183</v>
-      </c>
-      <c r="E35" s="5">
-        <f t="shared" si="3"/>
-        <v>348.78100000000001</v>
-      </c>
-      <c r="F35" s="5">
+        <v>352.87</v>
+      </c>
+      <c r="G35" s="5">
         <f t="shared" si="1"/>
-        <v>352.87</v>
-      </c>
-      <c r="G35" s="5">
-        <f>G34 + 1</f>
         <v>33</v>
       </c>
     </row>
@@ -1345,23 +2840,23 @@
         <v>357.21</v>
       </c>
       <c r="C36" s="7">
+        <f t="shared" si="3"/>
+        <v>1.4060000000000001</v>
+      </c>
+      <c r="D36" s="10">
+        <f t="shared" si="0"/>
+        <v>0.66999999999995907</v>
+      </c>
+      <c r="E36" s="5">
+        <f t="shared" si="4"/>
+        <v>350.28700000000003</v>
+      </c>
+      <c r="F36" s="5">
         <f t="shared" si="2"/>
-        <v>1.4060000000000001</v>
-      </c>
-      <c r="D36" s="10">
-        <f t="shared" si="0"/>
-        <v>0.66999999999995907</v>
-      </c>
-      <c r="E36" s="5">
-        <f t="shared" si="3"/>
-        <v>350.28700000000003</v>
-      </c>
-      <c r="F36" s="5">
-        <f t="shared" si="1"/>
         <v>354.31600000000003</v>
       </c>
       <c r="G36" s="5">
-        <f>G35 + 1</f>
+        <f t="shared" ref="G36:G62" si="5">G35 + 1</f>
         <v>34</v>
       </c>
     </row>
@@ -1373,23 +2868,23 @@
         <v>358.96</v>
       </c>
       <c r="C37" s="7">
+        <f t="shared" si="3"/>
+        <v>1.4089999999999976</v>
+      </c>
+      <c r="D37" s="10">
+        <f t="shared" si="0"/>
+        <v>1.75</v>
+      </c>
+      <c r="E37" s="5">
+        <f t="shared" si="4"/>
+        <v>351.69299999999998</v>
+      </c>
+      <c r="F37" s="5">
         <f t="shared" si="2"/>
-        <v>1.4089999999999976</v>
-      </c>
-      <c r="D37" s="10">
-        <f t="shared" si="0"/>
-        <v>1.75</v>
-      </c>
-      <c r="E37" s="5">
-        <f t="shared" si="3"/>
-        <v>351.69299999999998</v>
-      </c>
-      <c r="F37" s="5">
-        <f t="shared" si="1"/>
         <v>355.42</v>
       </c>
       <c r="G37" s="5">
-        <f>G36 + 1</f>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
     </row>
@@ -1401,23 +2896,23 @@
         <v>360.97</v>
       </c>
       <c r="C38" s="7">
+        <f t="shared" si="3"/>
+        <v>1.4620000000000004</v>
+      </c>
+      <c r="D38" s="10">
+        <f t="shared" si="0"/>
+        <v>2.0100000000000477</v>
+      </c>
+      <c r="E38" s="5">
+        <f t="shared" si="4"/>
+        <v>353.10199999999998</v>
+      </c>
+      <c r="F38" s="5">
         <f t="shared" si="2"/>
-        <v>1.4620000000000004</v>
-      </c>
-      <c r="D38" s="10">
-        <f t="shared" si="0"/>
-        <v>2.0100000000000477</v>
-      </c>
-      <c r="E38" s="5">
-        <f t="shared" si="3"/>
-        <v>353.10199999999998</v>
-      </c>
-      <c r="F38" s="5">
-        <f t="shared" si="1"/>
         <v>356.572</v>
       </c>
       <c r="G38" s="5">
-        <f>G37 + 1</f>
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
     </row>
@@ -1429,23 +2924,23 @@
         <v>362.74</v>
       </c>
       <c r="C39" s="7">
+        <f t="shared" si="3"/>
+        <v>1.5129999999999995</v>
+      </c>
+      <c r="D39" s="10">
+        <f t="shared" si="0"/>
+        <v>1.7699999999999818</v>
+      </c>
+      <c r="E39" s="5">
+        <f t="shared" si="4"/>
+        <v>354.56399999999996</v>
+      </c>
+      <c r="F39" s="5">
         <f t="shared" si="2"/>
-        <v>1.5129999999999995</v>
-      </c>
-      <c r="D39" s="10">
-        <f t="shared" si="0"/>
-        <v>1.7699999999999818</v>
-      </c>
-      <c r="E39" s="5">
-        <f t="shared" si="3"/>
-        <v>354.56399999999996</v>
-      </c>
-      <c r="F39" s="5">
-        <f t="shared" si="1"/>
         <v>357.87600000000003</v>
       </c>
       <c r="G39" s="5">
-        <f>G38 + 1</f>
+        <f t="shared" si="5"/>
         <v>37</v>
       </c>
     </row>
@@ -1457,23 +2952,23 @@
         <v>363.88</v>
       </c>
       <c r="C40" s="7">
+        <f t="shared" si="3"/>
+        <v>1.4569999999999994</v>
+      </c>
+      <c r="D40" s="10">
+        <f t="shared" si="0"/>
+        <v>1.1399999999999864</v>
+      </c>
+      <c r="E40" s="5">
+        <f t="shared" si="4"/>
+        <v>356.07699999999994</v>
+      </c>
+      <c r="F40" s="5">
         <f t="shared" si="2"/>
-        <v>1.4569999999999994</v>
-      </c>
-      <c r="D40" s="10">
-        <f t="shared" si="0"/>
-        <v>1.1399999999999864</v>
-      </c>
-      <c r="E40" s="5">
-        <f t="shared" si="3"/>
-        <v>356.07699999999994</v>
-      </c>
-      <c r="F40" s="5">
-        <f t="shared" si="1"/>
         <v>359.28399999999999</v>
       </c>
       <c r="G40" s="5">
-        <f>G39 + 1</f>
+        <f t="shared" si="5"/>
         <v>38</v>
       </c>
     </row>
@@ -1485,23 +2980,23 @@
         <v>366.84</v>
       </c>
       <c r="C41" s="7">
+        <f t="shared" si="3"/>
+        <v>1.5149999999999977</v>
+      </c>
+      <c r="D41" s="10">
+        <f t="shared" si="0"/>
+        <v>2.9599999999999795</v>
+      </c>
+      <c r="E41" s="5">
+        <f t="shared" si="4"/>
+        <v>357.53399999999999</v>
+      </c>
+      <c r="F41" s="5">
         <f t="shared" si="2"/>
-        <v>1.5149999999999977</v>
-      </c>
-      <c r="D41" s="10">
-        <f t="shared" si="0"/>
-        <v>2.9599999999999795</v>
-      </c>
-      <c r="E41" s="5">
-        <f t="shared" si="3"/>
-        <v>357.53399999999999</v>
-      </c>
-      <c r="F41" s="5">
-        <f t="shared" si="1"/>
         <v>360.75200000000007</v>
       </c>
       <c r="G41" s="5">
-        <f>G40 + 1</f>
+        <f t="shared" si="5"/>
         <v>39</v>
       </c>
     </row>
@@ -1513,23 +3008,23 @@
         <v>368.54</v>
       </c>
       <c r="C42" s="7">
+        <f t="shared" si="3"/>
+        <v>1.5340000000000031</v>
+      </c>
+      <c r="D42" s="10">
+        <f t="shared" si="0"/>
+        <v>1.7000000000000455</v>
+      </c>
+      <c r="E42" s="5">
+        <f t="shared" si="4"/>
+        <v>359.04899999999992</v>
+      </c>
+      <c r="F42" s="5">
         <f t="shared" si="2"/>
-        <v>1.5340000000000031</v>
-      </c>
-      <c r="D42" s="10">
-        <f t="shared" si="0"/>
-        <v>1.7000000000000455</v>
-      </c>
-      <c r="E42" s="5">
-        <f t="shared" si="3"/>
-        <v>359.04899999999992</v>
-      </c>
-      <c r="F42" s="5">
-        <f t="shared" si="1"/>
         <v>362.678</v>
       </c>
       <c r="G42" s="5">
-        <f>G41 + 1</f>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
     </row>
@@ -1541,23 +3036,23 @@
         <v>369.71</v>
       </c>
       <c r="C43" s="7">
+        <f t="shared" si="3"/>
+        <v>1.5259999999999991</v>
+      </c>
+      <c r="D43" s="10">
+        <f t="shared" si="0"/>
+        <v>1.1699999999999591</v>
+      </c>
+      <c r="E43" s="5">
+        <f t="shared" si="4"/>
+        <v>360.58299999999997</v>
+      </c>
+      <c r="F43" s="5">
         <f t="shared" si="2"/>
-        <v>1.5259999999999991</v>
-      </c>
-      <c r="D43" s="10">
-        <f t="shared" si="0"/>
-        <v>1.1699999999999591</v>
-      </c>
-      <c r="E43" s="5">
-        <f t="shared" si="3"/>
-        <v>360.58299999999997</v>
-      </c>
-      <c r="F43" s="5">
-        <f t="shared" si="1"/>
         <v>364.59399999999999</v>
       </c>
       <c r="G43" s="5">
-        <f>G42 + 1</f>
+        <f t="shared" si="5"/>
         <v>41</v>
       </c>
     </row>
@@ -1569,23 +3064,23 @@
         <v>371.32</v>
       </c>
       <c r="C44" s="7">
+        <f t="shared" si="3"/>
+        <v>1.5620000000000005</v>
+      </c>
+      <c r="D44" s="10">
+        <f t="shared" si="0"/>
+        <v>1.6100000000000136</v>
+      </c>
+      <c r="E44" s="5">
+        <f t="shared" si="4"/>
+        <v>362.10899999999998</v>
+      </c>
+      <c r="F44" s="5">
         <f t="shared" si="2"/>
-        <v>1.5620000000000005</v>
-      </c>
-      <c r="D44" s="10">
-        <f t="shared" si="0"/>
-        <v>1.6100000000000136</v>
-      </c>
-      <c r="E44" s="5">
-        <f t="shared" si="3"/>
-        <v>362.10899999999998</v>
-      </c>
-      <c r="F44" s="5">
-        <f t="shared" si="1"/>
         <v>366.34199999999998</v>
       </c>
       <c r="G44" s="5">
-        <f>G43 + 1</f>
+        <f t="shared" si="5"/>
         <v>42</v>
       </c>
     </row>
@@ -1597,23 +3092,23 @@
         <v>373.45</v>
       </c>
       <c r="C45" s="7">
+        <f t="shared" si="3"/>
+        <v>1.6909999999999967</v>
+      </c>
+      <c r="D45" s="10">
+        <f t="shared" si="0"/>
+        <v>2.1299999999999955</v>
+      </c>
+      <c r="E45" s="5">
+        <f t="shared" si="4"/>
+        <v>363.67099999999999</v>
+      </c>
+      <c r="F45" s="5">
         <f t="shared" si="2"/>
-        <v>1.6909999999999967</v>
-      </c>
-      <c r="D45" s="10">
-        <f t="shared" si="0"/>
-        <v>2.1299999999999955</v>
-      </c>
-      <c r="E45" s="5">
-        <f t="shared" si="3"/>
-        <v>363.67099999999999</v>
-      </c>
-      <c r="F45" s="5">
-        <f t="shared" si="1"/>
         <v>368.05799999999999</v>
       </c>
       <c r="G45" s="5">
-        <f>G44 + 1</f>
+        <f t="shared" si="5"/>
         <v>43</v>
       </c>
     </row>
@@ -1625,23 +3120,23 @@
         <v>375.98</v>
       </c>
       <c r="C46" s="7">
+        <f t="shared" si="3"/>
+        <v>1.8770000000000038</v>
+      </c>
+      <c r="D46" s="10">
+        <f t="shared" si="0"/>
+        <v>2.5300000000000296</v>
+      </c>
+      <c r="E46" s="5">
+        <f t="shared" si="4"/>
+        <v>365.36199999999997</v>
+      </c>
+      <c r="F46" s="5">
         <f t="shared" si="2"/>
-        <v>1.8770000000000038</v>
-      </c>
-      <c r="D46" s="10">
-        <f t="shared" si="0"/>
-        <v>2.5300000000000296</v>
-      </c>
-      <c r="E46" s="5">
-        <f t="shared" si="3"/>
-        <v>365.36199999999997</v>
-      </c>
-      <c r="F46" s="5">
-        <f t="shared" si="1"/>
         <v>369.97199999999998</v>
       </c>
       <c r="G46" s="5">
-        <f>G45 + 1</f>
+        <f t="shared" si="5"/>
         <v>44</v>
       </c>
     </row>
@@ -1653,23 +3148,23 @@
         <v>377.7</v>
       </c>
       <c r="C47" s="7">
+        <f t="shared" si="3"/>
+        <v>1.874000000000001</v>
+      </c>
+      <c r="D47" s="10">
+        <f t="shared" si="0"/>
+        <v>1.7199999999999704</v>
+      </c>
+      <c r="E47" s="5">
+        <f t="shared" si="4"/>
+        <v>367.23900000000003</v>
+      </c>
+      <c r="F47" s="5">
         <f t="shared" si="2"/>
-        <v>1.874000000000001</v>
-      </c>
-      <c r="D47" s="10">
-        <f t="shared" si="0"/>
-        <v>1.7199999999999704</v>
-      </c>
-      <c r="E47" s="5">
-        <f t="shared" si="3"/>
-        <v>367.23900000000003</v>
-      </c>
-      <c r="F47" s="5">
-        <f t="shared" si="1"/>
         <v>371.8</v>
       </c>
       <c r="G47" s="5">
-        <f>G46 + 1</f>
+        <f t="shared" si="5"/>
         <v>45</v>
       </c>
     </row>
@@ -1681,23 +3176,23 @@
         <v>379.98</v>
       </c>
       <c r="C48" s="7">
+        <f t="shared" si="3"/>
+        <v>1.9009999999999991</v>
+      </c>
+      <c r="D48" s="10">
+        <f t="shared" si="0"/>
+        <v>2.2800000000000296</v>
+      </c>
+      <c r="E48" s="5">
+        <f t="shared" si="4"/>
+        <v>369.11300000000011</v>
+      </c>
+      <c r="F48" s="5">
         <f t="shared" si="2"/>
-        <v>1.9009999999999991</v>
-      </c>
-      <c r="D48" s="10">
-        <f t="shared" si="0"/>
-        <v>2.2800000000000296</v>
-      </c>
-      <c r="E48" s="5">
-        <f t="shared" si="3"/>
-        <v>369.11300000000011</v>
-      </c>
-      <c r="F48" s="5">
-        <f t="shared" si="1"/>
         <v>373.63200000000001</v>
       </c>
       <c r="G48" s="5">
-        <f>G47 + 1</f>
+        <f t="shared" si="5"/>
         <v>46</v>
       </c>
     </row>
@@ -1709,23 +3204,23 @@
         <v>382.09</v>
       </c>
       <c r="C49" s="7">
+        <f t="shared" si="3"/>
+        <v>1.9349999999999965</v>
+      </c>
+      <c r="D49" s="10">
+        <f t="shared" si="0"/>
+        <v>2.1099999999999568</v>
+      </c>
+      <c r="E49" s="5">
+        <f t="shared" si="4"/>
+        <v>371.01400000000001</v>
+      </c>
+      <c r="F49" s="5">
         <f t="shared" si="2"/>
-        <v>1.9349999999999965</v>
-      </c>
-      <c r="D49" s="10">
-        <f t="shared" si="0"/>
-        <v>2.1099999999999568</v>
-      </c>
-      <c r="E49" s="5">
-        <f t="shared" si="3"/>
-        <v>371.01400000000001</v>
-      </c>
-      <c r="F49" s="5">
-        <f t="shared" si="1"/>
         <v>375.68600000000004</v>
       </c>
       <c r="G49" s="5">
-        <f>G48 + 1</f>
+        <f t="shared" si="5"/>
         <v>47</v>
       </c>
     </row>
@@ -1737,23 +3232,23 @@
         <v>384.02</v>
       </c>
       <c r="C50" s="7">
+        <f t="shared" si="3"/>
+        <v>2.0139999999999985</v>
+      </c>
+      <c r="D50" s="10">
+        <f t="shared" si="0"/>
+        <v>1.9300000000000068</v>
+      </c>
+      <c r="E50" s="5">
+        <f t="shared" si="4"/>
+        <v>372.94900000000001</v>
+      </c>
+      <c r="F50" s="5">
         <f t="shared" si="2"/>
-        <v>2.0139999999999985</v>
-      </c>
-      <c r="D50" s="10">
-        <f t="shared" si="0"/>
-        <v>1.9300000000000068</v>
-      </c>
-      <c r="E50" s="5">
-        <f t="shared" si="3"/>
-        <v>372.94900000000001</v>
-      </c>
-      <c r="F50" s="5">
-        <f t="shared" si="1"/>
         <v>377.84000000000003</v>
       </c>
       <c r="G50" s="5">
-        <f>G49 + 1</f>
+        <f t="shared" si="5"/>
         <v>48</v>
       </c>
     </row>
@@ -1765,23 +3260,23 @@
         <v>385.83</v>
       </c>
       <c r="C51" s="7">
+        <f t="shared" si="3"/>
+        <v>1.8990000000000009</v>
+      </c>
+      <c r="D51" s="10">
+        <f t="shared" si="0"/>
+        <v>1.8100000000000023</v>
+      </c>
+      <c r="E51" s="5">
+        <f t="shared" si="4"/>
+        <v>374.96300000000002</v>
+      </c>
+      <c r="F51" s="5">
         <f t="shared" si="2"/>
-        <v>1.8990000000000009</v>
-      </c>
-      <c r="D51" s="10">
-        <f t="shared" si="0"/>
-        <v>1.8100000000000023</v>
-      </c>
-      <c r="E51" s="5">
-        <f t="shared" si="3"/>
-        <v>374.96300000000002</v>
-      </c>
-      <c r="F51" s="5">
-        <f t="shared" si="1"/>
         <v>379.95400000000001</v>
       </c>
       <c r="G51" s="5">
-        <f>G50 + 1</f>
+        <f t="shared" si="5"/>
         <v>49</v>
       </c>
     </row>
@@ -1793,23 +3288,23 @@
         <v>387.64</v>
       </c>
       <c r="C52" s="7">
+        <f t="shared" si="3"/>
+        <v>1.9099999999999966</v>
+      </c>
+      <c r="D52" s="10">
+        <f t="shared" si="0"/>
+        <v>1.8100000000000023</v>
+      </c>
+      <c r="E52" s="5">
+        <f t="shared" si="4"/>
+        <v>376.86199999999997</v>
+      </c>
+      <c r="F52" s="5">
         <f t="shared" si="2"/>
-        <v>1.9099999999999966</v>
-      </c>
-      <c r="D52" s="10">
-        <f t="shared" si="0"/>
-        <v>1.8100000000000023</v>
-      </c>
-      <c r="E52" s="5">
-        <f t="shared" si="3"/>
-        <v>376.86199999999997</v>
-      </c>
-      <c r="F52" s="5">
-        <f t="shared" si="1"/>
         <v>381.92399999999998</v>
       </c>
       <c r="G52" s="5">
-        <f>G51 + 1</f>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
     </row>
@@ -1821,23 +3316,23 @@
         <v>390.1</v>
       </c>
       <c r="C53" s="7">
+        <f t="shared" si="3"/>
+        <v>2.0390000000000041</v>
+      </c>
+      <c r="D53" s="10">
+        <f t="shared" si="0"/>
+        <v>2.4600000000000364</v>
+      </c>
+      <c r="E53" s="5">
+        <f t="shared" si="4"/>
+        <v>378.77199999999999</v>
+      </c>
+      <c r="F53" s="5">
         <f t="shared" si="2"/>
-        <v>2.0390000000000041</v>
-      </c>
-      <c r="D53" s="10">
-        <f t="shared" si="0"/>
-        <v>2.4600000000000364</v>
-      </c>
-      <c r="E53" s="5">
-        <f t="shared" si="3"/>
-        <v>378.77199999999999</v>
-      </c>
-      <c r="F53" s="5">
-        <f t="shared" si="1"/>
         <v>383.91199999999998</v>
       </c>
       <c r="G53" s="5">
-        <f>G52 + 1</f>
+        <f t="shared" si="5"/>
         <v>51</v>
       </c>
     </row>
@@ -1849,23 +3344,23 @@
         <v>391.85</v>
       </c>
       <c r="C54" s="7">
+        <f t="shared" si="3"/>
+        <v>2.053000000000003</v>
+      </c>
+      <c r="D54" s="10">
+        <f t="shared" si="0"/>
+        <v>1.75</v>
+      </c>
+      <c r="E54" s="5">
+        <f t="shared" si="4"/>
+        <v>380.81099999999998</v>
+      </c>
+      <c r="F54" s="5">
         <f t="shared" si="2"/>
-        <v>2.053000000000003</v>
-      </c>
-      <c r="D54" s="10">
-        <f t="shared" si="0"/>
-        <v>1.75</v>
-      </c>
-      <c r="E54" s="5">
-        <f t="shared" si="3"/>
-        <v>380.81099999999998</v>
-      </c>
-      <c r="F54" s="5">
-        <f t="shared" si="1"/>
         <v>385.93599999999998</v>
       </c>
       <c r="G54" s="5">
-        <f>G53 + 1</f>
+        <f t="shared" si="5"/>
         <v>52</v>
       </c>
     </row>
@@ -1877,23 +3372,23 @@
         <v>394.06</v>
       </c>
       <c r="C55" s="7">
+        <f t="shared" si="3"/>
+        <v>2.0610000000000013</v>
+      </c>
+      <c r="D55" s="10">
+        <f t="shared" si="0"/>
+        <v>2.2099999999999795</v>
+      </c>
+      <c r="E55" s="5">
+        <f t="shared" si="4"/>
+        <v>382.86399999999998</v>
+      </c>
+      <c r="F55" s="5">
         <f t="shared" si="2"/>
-        <v>2.0610000000000013</v>
-      </c>
-      <c r="D55" s="10">
-        <f t="shared" si="0"/>
-        <v>2.2099999999999795</v>
-      </c>
-      <c r="E55" s="5">
-        <f t="shared" si="3"/>
-        <v>382.86399999999998</v>
-      </c>
-      <c r="F55" s="5">
-        <f t="shared" si="1"/>
         <v>387.88800000000003</v>
       </c>
       <c r="G55" s="5">
-        <f>G54 + 1</f>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
     </row>
@@ -1905,23 +3400,23 @@
         <v>396.74</v>
       </c>
       <c r="C56" s="7">
+        <f t="shared" si="3"/>
+        <v>2.0759999999999992</v>
+      </c>
+      <c r="D56" s="10">
+        <f t="shared" si="0"/>
+        <v>2.6800000000000068</v>
+      </c>
+      <c r="E56" s="5">
+        <f t="shared" si="4"/>
+        <v>384.92500000000001</v>
+      </c>
+      <c r="F56" s="5">
         <f t="shared" si="2"/>
-        <v>2.0759999999999992</v>
-      </c>
-      <c r="D56" s="10">
-        <f t="shared" si="0"/>
-        <v>2.6800000000000068</v>
-      </c>
-      <c r="E56" s="5">
-        <f t="shared" si="3"/>
-        <v>384.92500000000001</v>
-      </c>
-      <c r="F56" s="5">
-        <f t="shared" si="1"/>
         <v>389.89600000000002</v>
       </c>
       <c r="G56" s="5">
-        <f>G55 + 1</f>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
     </row>
@@ -1933,23 +3428,23 @@
         <v>398.81</v>
       </c>
       <c r="C57" s="7">
+        <f t="shared" si="3"/>
+        <v>2.1110000000000015</v>
+      </c>
+      <c r="D57" s="10">
+        <f t="shared" si="0"/>
+        <v>2.0699999999999932</v>
+      </c>
+      <c r="E57" s="5">
+        <f t="shared" si="4"/>
+        <v>387.00099999999998</v>
+      </c>
+      <c r="F57" s="5">
         <f t="shared" si="2"/>
-        <v>2.1110000000000015</v>
-      </c>
-      <c r="D57" s="10">
-        <f t="shared" si="0"/>
-        <v>2.0699999999999932</v>
-      </c>
-      <c r="E57" s="5">
-        <f t="shared" si="3"/>
-        <v>387.00099999999998</v>
-      </c>
-      <c r="F57" s="5">
-        <f t="shared" si="1"/>
         <v>392.07799999999997</v>
       </c>
       <c r="G57" s="5">
-        <f>G56 + 1</f>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
     </row>
@@ -1961,23 +3456,23 @@
         <v>401.01</v>
       </c>
       <c r="C58" s="7">
+        <f t="shared" si="3"/>
+        <v>2.1029999999999971</v>
+      </c>
+      <c r="D58" s="10">
+        <f t="shared" si="0"/>
+        <v>2.1999999999999886</v>
+      </c>
+      <c r="E58" s="5">
+        <f t="shared" si="4"/>
+        <v>389.11199999999997</v>
+      </c>
+      <c r="F58" s="5">
         <f t="shared" si="2"/>
-        <v>2.1029999999999971</v>
-      </c>
-      <c r="D58" s="10">
-        <f t="shared" si="0"/>
-        <v>2.1999999999999886</v>
-      </c>
-      <c r="E58" s="5">
-        <f t="shared" si="3"/>
-        <v>389.11199999999997</v>
-      </c>
-      <c r="F58" s="5">
-        <f t="shared" si="1"/>
         <v>394.31200000000001</v>
       </c>
       <c r="G58" s="5">
-        <f>G57 + 1</f>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
     </row>
@@ -1989,23 +3484,23 @@
         <v>404.41</v>
       </c>
       <c r="C59" s="7">
+        <f t="shared" si="3"/>
+        <v>2.2320000000000051</v>
+      </c>
+      <c r="D59" s="10">
+        <f t="shared" si="0"/>
+        <v>3.4000000000000341</v>
+      </c>
+      <c r="E59" s="5">
+        <f t="shared" si="4"/>
+        <v>391.21499999999997</v>
+      </c>
+      <c r="F59" s="5">
         <f t="shared" si="2"/>
-        <v>2.2320000000000051</v>
-      </c>
-      <c r="D59" s="10">
-        <f t="shared" si="0"/>
-        <v>3.4000000000000341</v>
-      </c>
-      <c r="E59" s="5">
-        <f t="shared" si="3"/>
-        <v>391.21499999999997</v>
-      </c>
-      <c r="F59" s="5">
-        <f t="shared" si="1"/>
         <v>396.49399999999997</v>
       </c>
       <c r="G59" s="5">
-        <f>G58 + 1</f>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
     </row>
@@ -2017,23 +3512,23 @@
         <v>406.76</v>
       </c>
       <c r="C60" s="7">
+        <f t="shared" si="3"/>
+        <v>2.2740000000000009</v>
+      </c>
+      <c r="D60" s="10">
+        <f t="shared" si="0"/>
+        <v>2.3499999999999659</v>
+      </c>
+      <c r="E60" s="5">
+        <f t="shared" si="4"/>
+        <v>393.447</v>
+      </c>
+      <c r="F60" s="5">
         <f t="shared" si="2"/>
-        <v>2.2740000000000009</v>
-      </c>
-      <c r="D60" s="10">
-        <f t="shared" si="0"/>
-        <v>2.3499999999999659</v>
-      </c>
-      <c r="E60" s="5">
-        <f t="shared" si="3"/>
-        <v>393.447</v>
-      </c>
-      <c r="F60" s="5">
-        <f t="shared" si="1"/>
         <v>399.00599999999997</v>
       </c>
       <c r="G60" s="5">
-        <f>G59 + 1</f>
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
     </row>
@@ -2045,23 +3540,23 @@
         <v>408.72</v>
       </c>
       <c r="C61" s="7">
+        <f t="shared" si="3"/>
+        <v>2.2890000000000041</v>
+      </c>
+      <c r="D61" s="10">
+        <f t="shared" si="0"/>
+        <v>1.9600000000000364</v>
+      </c>
+      <c r="E61" s="5">
+        <f t="shared" si="4"/>
+        <v>395.72099999999995</v>
+      </c>
+      <c r="F61" s="5">
         <f t="shared" si="2"/>
-        <v>2.2890000000000041</v>
-      </c>
-      <c r="D61" s="10">
-        <f t="shared" si="0"/>
-        <v>1.9600000000000364</v>
-      </c>
-      <c r="E61" s="5">
-        <f t="shared" si="3"/>
-        <v>395.72099999999995</v>
-      </c>
-      <c r="F61" s="5">
-        <f t="shared" si="1"/>
         <v>401.54599999999999</v>
       </c>
       <c r="G61" s="5">
-        <f>G60 + 1</f>
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
     </row>
@@ -2073,23 +3568,23 @@
         <v>411.66</v>
       </c>
       <c r="C62" s="7">
+        <f t="shared" si="3"/>
+        <v>2.4020000000000037</v>
+      </c>
+      <c r="D62" s="10">
+        <f t="shared" si="0"/>
+        <v>2.9399999999999977</v>
+      </c>
+      <c r="E62" s="5">
+        <f t="shared" si="4"/>
+        <v>398.00999999999993</v>
+      </c>
+      <c r="F62" s="5">
         <f t="shared" si="2"/>
-        <v>2.4020000000000037</v>
-      </c>
-      <c r="D62" s="10">
-        <f t="shared" si="0"/>
-        <v>2.9399999999999977</v>
-      </c>
-      <c r="E62" s="5">
-        <f t="shared" si="3"/>
-        <v>398.00999999999993</v>
-      </c>
-      <c r="F62" s="5">
-        <f t="shared" si="1"/>
         <v>403.94200000000001</v>
       </c>
       <c r="G62" s="5">
-        <f>G61 + 1</f>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
     </row>
@@ -2101,19 +3596,19 @@
         <v>414.24</v>
       </c>
       <c r="C63" s="7">
+        <f t="shared" si="3"/>
+        <v>2.4139999999999988</v>
+      </c>
+      <c r="D63" s="10">
+        <f t="shared" si="0"/>
+        <v>2.5799999999999841</v>
+      </c>
+      <c r="E63" s="5">
+        <f t="shared" si="4"/>
+        <v>400.41200000000003</v>
+      </c>
+      <c r="F63" s="5">
         <f t="shared" si="2"/>
-        <v>2.4139999999999988</v>
-      </c>
-      <c r="D63" s="10">
-        <f t="shared" si="0"/>
-        <v>2.5799999999999841</v>
-      </c>
-      <c r="E63" s="5">
-        <f t="shared" si="3"/>
-        <v>400.41200000000003</v>
-      </c>
-      <c r="F63" s="5">
-        <f t="shared" si="1"/>
         <v>406.51200000000006</v>
       </c>
     </row>
@@ -2125,19 +3620,19 @@
         <v>416.45</v>
       </c>
       <c r="C64" s="7">
+        <f t="shared" si="3"/>
+        <v>2.4599999999999964</v>
+      </c>
+      <c r="D64" s="10">
+        <f t="shared" si="0"/>
+        <v>2.2099999999999795</v>
+      </c>
+      <c r="E64" s="5">
+        <f t="shared" si="4"/>
+        <v>402.82600000000002</v>
+      </c>
+      <c r="F64" s="5">
         <f t="shared" si="2"/>
-        <v>2.4599999999999964</v>
-      </c>
-      <c r="D64" s="10">
-        <f t="shared" si="0"/>
-        <v>2.2099999999999795</v>
-      </c>
-      <c r="E64" s="5">
-        <f t="shared" si="3"/>
-        <v>402.82600000000002</v>
-      </c>
-      <c r="F64" s="5">
-        <f t="shared" si="1"/>
         <v>409.15800000000002</v>
       </c>
       <c r="G64" s="5">
@@ -2145,23 +3640,27 @@
         <v>61</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <f>A64+1</f>
         <v>2022</v>
       </c>
       <c r="E65" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>405.286</v>
       </c>
       <c r="F65" s="5">
         <f>(B64+B63+B62+B61+B60) / 5</f>
         <v>411.56599999999997</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H65" s="5">
+        <f xml:space="preserve"> 0.01303763562*A65^2 - 50.2757536664*A65 + 48771.4364401642</f>
+        <v>418.02715690348123</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
-        <f t="shared" ref="A66:A129" si="4">A65+1</f>
+        <f t="shared" ref="A66:A129" si="6">A65+1</f>
         <v>2023</v>
       </c>
       <c r="E66" s="5">
@@ -2172,10 +3671,14 @@
         <f>(F65+B64+B63+B62+B61) / 5</f>
         <v>412.52719999999999</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H66" s="5">
+        <f t="shared" ref="H66:H129" si="7" xml:space="preserve"> 0.01303763562*A66^2 - 50.2757536664*A66 + 48771.4364401642</f>
+        <v>420.48863931997766</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2024</v>
       </c>
       <c r="E67" s="5">
@@ -2186,10 +3689,14 @@
         <f>(F66+F65+B64+B63+B62) / 5</f>
         <v>413.28864000000004</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H67" s="5">
+        <f t="shared" si="7"/>
+        <v>422.97619700772339</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2025</v>
       </c>
       <c r="E68" s="5">
@@ -2200,10 +3707,14 @@
         <f>(F67+F66+F65+B64+B63) / 5</f>
         <v>413.61436800000001</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H68" s="5">
+        <f t="shared" si="7"/>
+        <v>425.48982996670384</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2026</v>
       </c>
       <c r="E69" s="5">
@@ -2214,10 +3725,14 @@
         <f>(F68+F67+F66+F65+B64) / 5</f>
         <v>413.48924159999996</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H69" s="5">
+        <f t="shared" si="7"/>
+        <v>428.02953819691902</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2027</v>
       </c>
       <c r="E70" s="5">
@@ -2228,10 +3743,14 @@
         <f>(F69+F68+F67+F66+F65) / 5</f>
         <v>412.89708991999998</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H70" s="5">
+        <f t="shared" si="7"/>
+        <v>430.59532169838349</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2028</v>
       </c>
       <c r="E71" s="5">
@@ -2239,13 +3758,17 @@
         <v>409.67348998599999</v>
       </c>
       <c r="F71" s="5">
-        <f t="shared" ref="F71:F134" si="5">(F70+F69+F68+F67+F66) / 5</f>
+        <f t="shared" ref="F71:F134" si="8">(F70+F69+F68+F67+F66) / 5</f>
         <v>413.16330790399996</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H71" s="5">
+        <f t="shared" si="7"/>
+        <v>433.18718047108268</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2029</v>
       </c>
       <c r="E72" s="5">
@@ -2253,13 +3776,17 @@
         <v>409.7688389846</v>
       </c>
       <c r="F72" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>413.2905294848</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H72" s="5">
+        <f t="shared" si="7"/>
+        <v>435.80511451502389</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2030</v>
       </c>
       <c r="E73" s="5">
@@ -2267,13 +3794,17 @@
         <v>409.57972288306007</v>
       </c>
       <c r="F73" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>413.29090738176001</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H73" s="5">
+        <f t="shared" si="7"/>
+        <v>438.4491238302071</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2031</v>
       </c>
       <c r="E74" s="5">
@@ -2281,13 +3812,17 @@
         <v>409.11369517136603</v>
       </c>
       <c r="F74" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>413.22621525811189</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H74" s="5">
+        <f t="shared" si="7"/>
+        <v>441.11920841662504</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2032</v>
       </c>
       <c r="E75" s="5">
@@ -2295,965 +3830,1242 @@
         <v>408.38006468850267</v>
       </c>
       <c r="F75" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>413.17360998973436</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H75" s="5">
+        <f t="shared" si="7"/>
+        <v>443.81536827428499</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2033</v>
       </c>
       <c r="E76" s="5">
-        <f t="shared" ref="E76:E139" si="6">(E75+E74+E73+E72+E71+E70+E69+E68+E67+E66) / 10</f>
+        <f t="shared" ref="E76:E139" si="9">(E75+E74+E73+E72+E71+E70+E69+E68+E67+E66) / 10</f>
         <v>408.68947115735295</v>
       </c>
       <c r="F76" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>413.22891400368127</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H76" s="5">
+        <f t="shared" si="7"/>
+        <v>446.53760340318695</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2034</v>
       </c>
       <c r="E77" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>408.91755827308828</v>
       </c>
       <c r="F77" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>413.24203522361751</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H77" s="5">
+        <f t="shared" si="7"/>
+        <v>449.28591380332364</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2035</v>
       </c>
       <c r="E78" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>409.07176810039698</v>
       </c>
       <c r="F78" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>413.232336371381</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H78" s="5">
+        <f t="shared" si="7"/>
+        <v>452.06029947470961</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2036</v>
       </c>
       <c r="E79" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>409.15574431043672</v>
       </c>
       <c r="F79" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>413.22062216930516</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H79" s="5">
+        <f t="shared" si="7"/>
+        <v>454.86076041731576</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2037</v>
       </c>
       <c r="E80" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>409.17589808148034</v>
       </c>
       <c r="F80" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>413.21950355154388</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H80" s="5">
+        <f t="shared" si="7"/>
+        <v>457.68729663117119</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2038</v>
       </c>
       <c r="E81" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>409.15262516362839</v>
       </c>
       <c r="F81" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>413.22868226390574</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H81" s="5">
+        <f t="shared" si="7"/>
+        <v>460.53990811627591</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2039</v>
       </c>
       <c r="E82" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>409.10053868139124</v>
       </c>
       <c r="F82" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>413.22863591595069</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H82" s="5">
+        <f t="shared" si="7"/>
+        <v>463.41859487261536</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2040</v>
       </c>
       <c r="E83" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>409.03370865107041</v>
       </c>
       <c r="F83" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>413.22595605441728</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H83" s="5">
+        <f t="shared" si="7"/>
+        <v>466.32335690019681</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2041</v>
       </c>
       <c r="E84" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>408.9791072278714</v>
       </c>
       <c r="F84" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>413.22467999102457</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H84" s="5">
+        <f t="shared" si="7"/>
+        <v>469.254194199013</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2042</v>
       </c>
       <c r="E85" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>408.96564843352201</v>
       </c>
       <c r="F85" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>413.22549155536842</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H85" s="5">
+        <f t="shared" si="7"/>
+        <v>472.21110676907847</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2043</v>
       </c>
       <c r="E86" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>409.02420680802391</v>
       </c>
       <c r="F86" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>413.22668915613338</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H86" s="5">
+        <f t="shared" si="7"/>
+        <v>475.19409461037867</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2044</v>
       </c>
       <c r="E87" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>409.05768037309093</v>
       </c>
       <c r="F87" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>413.22629053457894</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H87" s="5">
+        <f t="shared" si="7"/>
+        <v>478.20315772292088</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2045</v>
       </c>
       <c r="E88" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>409.07169258309119</v>
       </c>
       <c r="F88" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>413.22582145830449</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H88" s="5">
+        <f t="shared" si="7"/>
+        <v>481.23829610669782</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2046</v>
       </c>
       <c r="E89" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>409.07168503136057</v>
       </c>
       <c r="F89" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>413.2257945390819</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H89" s="5">
+        <f t="shared" si="7"/>
+        <v>484.29950976171676</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2047</v>
       </c>
       <c r="E90" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>409.063279103453</v>
       </c>
       <c r="F90" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>413.22601744869343</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H90" s="5">
+        <f t="shared" si="7"/>
+        <v>487.38679868797772</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2048</v>
       </c>
       <c r="E91" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>409.05201720565026</v>
       </c>
       <c r="F91" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>413.22612262735839</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H91" s="5">
+        <f t="shared" si="7"/>
+        <v>490.50016288548068</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2049</v>
       </c>
       <c r="E92" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>409.0419564098525</v>
       </c>
       <c r="F92" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>413.22600932160339</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H92" s="5">
+        <f t="shared" si="7"/>
+        <v>493.63960235421837</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2050</v>
       </c>
       <c r="E93" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>409.03609818269854</v>
       </c>
       <c r="F93" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>413.22595307900826</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H93" s="5">
+        <f t="shared" si="7"/>
+        <v>496.80511709420534</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2051</v>
       </c>
       <c r="E94" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>409.0363371358614</v>
       </c>
       <c r="F94" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>413.2259794031491</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H94" s="5">
+        <f t="shared" si="7"/>
+        <v>499.99670710541977</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2052</v>
       </c>
       <c r="E95" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>409.04206012666037</v>
       </c>
       <c r="F95" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>413.22601637596256</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H95" s="5">
+        <f t="shared" si="7"/>
+        <v>503.21437238788349</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2053</v>
       </c>
       <c r="E96" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>409.04970129597427</v>
       </c>
       <c r="F96" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>413.2260161614164</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H96" s="5">
+        <f t="shared" si="7"/>
+        <v>506.45811294158193</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2054</v>
       </c>
       <c r="E97" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>409.05225074476937</v>
       </c>
       <c r="F97" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>413.22599486822793</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H97" s="5">
+        <f t="shared" si="7"/>
+        <v>509.72792876652238</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2055</v>
       </c>
       <c r="E98" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>409.05170778193718</v>
       </c>
       <c r="F98" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>413.22599197755278</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H98" s="5">
+        <f t="shared" si="7"/>
+        <v>513.02381986270484</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2056</v>
       </c>
       <c r="E99" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>409.04970930182174</v>
       </c>
       <c r="F99" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>413.22599975726177</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H99" s="5">
+        <f t="shared" si="7"/>
+        <v>516.34578623012203</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2057</v>
       </c>
       <c r="E100" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>409.04751172886785</v>
       </c>
       <c r="F100" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>413.22600382808423</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H100" s="5">
+        <f t="shared" si="7"/>
+        <v>519.6938278687885</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2058</v>
       </c>
       <c r="E101" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>409.04593499140935</v>
       </c>
       <c r="F101" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>413.22600131850857</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H101" s="5">
+        <f t="shared" si="7"/>
+        <v>523.06794477868971</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2059</v>
       </c>
       <c r="E102" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>409.04532676998531</v>
       </c>
       <c r="F102" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>413.22599834992707</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H102" s="5">
+        <f t="shared" si="7"/>
+        <v>526.46813695982564</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2060</v>
       </c>
       <c r="E103" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>409.04566380599852</v>
       </c>
       <c r="F103" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>413.22599904626696</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H103" s="5">
+        <f t="shared" si="7"/>
+        <v>529.89440441221086</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2061</v>
       </c>
       <c r="E104" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>409.04662036832855</v>
       </c>
       <c r="F104" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>413.22600046000969</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H104" s="5">
+        <f t="shared" si="7"/>
+        <v>533.34674713581626</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2062</v>
       </c>
       <c r="E105" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>409.04764869157526</v>
       </c>
       <c r="F105" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>413.2260006005593</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H105" s="5">
+        <f t="shared" si="7"/>
+        <v>536.82516513067094</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2063</v>
       </c>
       <c r="E106" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>409.04820754806678</v>
       </c>
       <c r="F106" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>413.22599995505436</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H106" s="5">
+        <f t="shared" si="7"/>
+        <v>540.3296583967749</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2064</v>
       </c>
       <c r="E107" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>409.04805817327599</v>
       </c>
       <c r="F107" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>413.22599968236352</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H107" s="5">
+        <f t="shared" si="7"/>
+        <v>543.8602269341136</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2065</v>
       </c>
       <c r="E108" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>409.04763891612669</v>
       </c>
       <c r="F108" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>413.22599994885076</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H108" s="5">
+        <f t="shared" si="7"/>
+        <v>547.4168707426943</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2066</v>
       </c>
       <c r="E109" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>409.04723202954563</v>
       </c>
       <c r="F109" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>413.22600012936743</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H109" s="5">
+        <f t="shared" si="7"/>
+        <v>550.99958982251701</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2067</v>
       </c>
       <c r="E110" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>409.04698430231804</v>
       </c>
       <c r="F110" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>413.2260000632391</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H110" s="5">
+        <f t="shared" si="7"/>
+        <v>554.60838417357445</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2068</v>
       </c>
       <c r="E111" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>409.04693155966305</v>
       </c>
       <c r="F111" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>413.22599995577502</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H111" s="5">
+        <f t="shared" si="7"/>
+        <v>558.24325379588117</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2069</v>
       </c>
       <c r="E112" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>409.04703121648839</v>
       </c>
       <c r="F112" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>413.22599995591918</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H112" s="5">
+        <f t="shared" si="7"/>
+        <v>561.90419868941535</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2070</v>
       </c>
       <c r="E113" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>409.04720166113873</v>
       </c>
       <c r="F113" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>413.22600001063029</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H113" s="5">
+        <f t="shared" si="7"/>
+        <v>565.59121885419881</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2071</v>
       </c>
       <c r="E114" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>409.04735544665272</v>
       </c>
       <c r="F114" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>413.22600002298623</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H114" s="5">
+        <f t="shared" si="7"/>
+        <v>569.30431429021701</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2072</v>
       </c>
       <c r="E115" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>409.04742895448516</v>
       </c>
       <c r="F115" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>413.22600000170996</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H115" s="5">
+        <f t="shared" si="7"/>
+        <v>573.04348499747721</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2073</v>
       </c>
       <c r="E116" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>409.04740698077615</v>
       </c>
       <c r="F116" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>413.22599998940416</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H116" s="5">
+        <f t="shared" si="7"/>
+        <v>576.80873097597942</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2074</v>
       </c>
       <c r="E117" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>409.04732692404707</v>
       </c>
       <c r="F117" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>413.22599999612993</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H117" s="5">
+        <f t="shared" si="7"/>
+        <v>580.60005222572363</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2075</v>
       </c>
       <c r="E118" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>409.04725379912418</v>
       </c>
       <c r="F118" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>413.22600000417208</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H118" s="5">
+        <f t="shared" si="7"/>
+        <v>584.41744874670258</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2076</v>
       </c>
       <c r="E119" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>409.04721528742391</v>
       </c>
       <c r="F119" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>413.22600000288048</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H119" s="5">
+        <f t="shared" si="7"/>
+        <v>588.26092053892353</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2077</v>
       </c>
       <c r="E120" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>409.04721361321174</v>
       </c>
       <c r="F120" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>413.22599999885932</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H120" s="5">
+        <f t="shared" si="7"/>
+        <v>592.13046760238649</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2078</v>
       </c>
       <c r="E121" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>409.04723654430103</v>
       </c>
       <c r="F121" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>413.22599999828924</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H121" s="5">
+        <f t="shared" si="7"/>
+        <v>596.02608993708418</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2079</v>
       </c>
       <c r="E122" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>409.04726704276487</v>
       </c>
       <c r="F122" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>413.22600000006616</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H122" s="5">
+        <f t="shared" si="7"/>
+        <v>599.94778754302388</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2080</v>
       </c>
       <c r="E123" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>409.04729062539252</v>
       </c>
       <c r="F123" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>413.2260000008535</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H123" s="5">
+        <f t="shared" si="7"/>
+        <v>603.89556042020558</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2081</v>
       </c>
       <c r="E124" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>409.04729952181788</v>
       </c>
       <c r="F124" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>413.22600000018974</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H124" s="5">
+        <f t="shared" si="7"/>
+        <v>607.8694085686293</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2082</v>
       </c>
       <c r="E125" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>409.04729392933439</v>
       </c>
       <c r="F125" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>413.22599999965161</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H125" s="5">
+        <f t="shared" si="7"/>
+        <v>611.86933198828774</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2083</v>
       </c>
       <c r="E126" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>409.04728042681938</v>
       </c>
       <c r="F126" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>413.22599999981003</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H126" s="5">
+        <f t="shared" si="7"/>
+        <v>615.89533067918819</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2084</v>
       </c>
       <c r="E127" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>409.04726777142366</v>
       </c>
       <c r="F127" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>413.22600000011414</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H127" s="5">
+        <f t="shared" si="7"/>
+        <v>619.94740464133065</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2085</v>
       </c>
       <c r="E128" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>409.04726185616136</v>
       </c>
       <c r="F128" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>413.2260000001238</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H128" s="5">
+        <f t="shared" si="7"/>
+        <v>624.02555387469329</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2086</v>
       </c>
       <c r="E129" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>409.04726266186509</v>
       </c>
       <c r="F129" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>413.22599999997783</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H129" s="5">
+        <f t="shared" si="7"/>
+        <v>628.12977837931248</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="4">
-        <f t="shared" ref="A130:A138" si="7">A129+1</f>
+        <f t="shared" ref="A130:A138" si="10">A129+1</f>
         <v>2087</v>
       </c>
       <c r="E130" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>409.04726739930919</v>
       </c>
       <c r="F130" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>413.22599999993554</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H130" s="5">
+        <f t="shared" ref="H130:H143" si="11" xml:space="preserve"> 0.01303763562*A130^2 - 50.2757536664*A130 + 48771.4364401642</f>
+        <v>632.26007815517369</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2088</v>
       </c>
       <c r="E131" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>409.04727277791892</v>
       </c>
       <c r="F131" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>413.22599999999227</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H131" s="5">
+        <f t="shared" si="11"/>
+        <v>636.4164532022769</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2089</v>
       </c>
       <c r="E132" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>409.04727640128073</v>
       </c>
       <c r="F132" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>413.22600000002876</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H132" s="5">
+        <f t="shared" si="11"/>
+        <v>640.59890352061484</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2090</v>
       </c>
       <c r="E133" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>409.04727733713236</v>
       </c>
       <c r="F133" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>413.22600000001165</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H133" s="5">
+        <f t="shared" si="11"/>
+        <v>644.80742911019479</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2091</v>
       </c>
       <c r="E134" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>409.04727600830631</v>
       </c>
       <c r="F134" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>413.2259999999892</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H134" s="5">
+        <f t="shared" si="11"/>
+        <v>649.04202997101675</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2092</v>
       </c>
       <c r="E135" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>409.0472736569551</v>
       </c>
       <c r="F135" s="5">
-        <f t="shared" ref="F135:F143" si="8">(F134+F133+F132+F131+F130) / 5</f>
+        <f t="shared" ref="F135:F143" si="12">(F134+F133+F132+F131+F130) / 5</f>
         <v>413.22599999999147</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H135" s="5">
+        <f t="shared" si="11"/>
+        <v>653.30270610308071</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2093</v>
       </c>
       <c r="E136" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>409.04727162971716</v>
       </c>
       <c r="F136" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>413.22600000000267</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H136" s="5">
+        <f t="shared" si="11"/>
+        <v>657.5894575063794</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2094</v>
       </c>
       <c r="E137" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>409.04727075000699</v>
       </c>
       <c r="F137" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>413.22600000000477</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H137" s="5">
+        <f t="shared" si="11"/>
+        <v>661.90228418092011</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2095</v>
       </c>
       <c r="E138" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>409.04727104786531</v>
       </c>
       <c r="F138" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>413.22599999999994</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H138" s="5">
+        <f t="shared" si="11"/>
+        <v>666.24118612670281</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="4">
         <f>A138+1</f>
         <v>2096</v>
       </c>
       <c r="E139" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>409.04727196703573</v>
       </c>
       <c r="F139" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>413.22599999999767</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H139" s="5">
+        <f t="shared" si="11"/>
+        <v>670.60616334372025</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="4">
-        <f t="shared" ref="A140" si="9">A139+1</f>
+        <f t="shared" ref="A140" si="13">A139+1</f>
         <v>2097</v>
       </c>
       <c r="E140" s="5">
-        <f t="shared" ref="E140:E143" si="10">(E139+E138+E137+E136+E135+E134+E133+E132+E131+E130) / 10</f>
+        <f t="shared" ref="E140:E143" si="14">(E139+E138+E137+E136+E135+E134+E133+E132+E131+E130) / 10</f>
         <v>409.04727289755272</v>
       </c>
       <c r="F140" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>413.22599999999932</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H140" s="5">
+        <f t="shared" si="11"/>
+        <v>674.9972158319797</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="4">
         <f>A140+1</f>
         <v>2098</v>
       </c>
       <c r="E141" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>409.04727344737711</v>
       </c>
       <c r="F141" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>413.22600000000091</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H141" s="5">
+        <f t="shared" si="11"/>
+        <v>679.41434359148116</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="4">
         <f>A141+1</f>
         <v>2099</v>
       </c>
       <c r="E142" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>409.04727351432291</v>
       </c>
       <c r="F142" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>413.22600000000045</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H142" s="5">
+        <f t="shared" si="11"/>
+        <v>683.85754662222462</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="4">
         <f>A142+1</f>
         <v>2100</v>
       </c>
       <c r="E143" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>409.04727322562718</v>
       </c>
       <c r="F143" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>413.22599999999966</v>
+      </c>
+      <c r="H143" s="5">
+        <f t="shared" si="11"/>
+        <v>688.32682492420281</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3261,7 +5073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFE0AB23-54D0-B340-ADD4-9E6608CE1FCA}">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
